--- a/data/AppData.xlsx
+++ b/data/AppData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\OneDrive - McGill University\Programming\screentime_tracker\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="114_{40223ACD-1D92-403E-BF37-3D9ABC04ED10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EE8C57C0-F259-46AF-B0FB-1EEC6BC37337}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="109_{FB3414F6-078A-409E-A29F-F1ADE846058B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{53C4BA74-FA01-4747-BB5F-14CB22B3CC22}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="209">
   <si>
     <t>time_info</t>
   </si>
@@ -545,15 +545,6 @@
     <t>Average of Snapchat</t>
   </si>
   <si>
-    <t>Average of Tinder</t>
-  </si>
-  <si>
-    <t>Average of Bumble</t>
-  </si>
-  <si>
-    <t>Average of JSwipe</t>
-  </si>
-  <si>
     <t>Average of One UI Home</t>
   </si>
   <si>
@@ -757,7 +748,31 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="32">
+    <dxf>
+      <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="hh:mm:ss;@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
@@ -970,10 +985,6 @@
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
         </c:spPr>
         <c:marker>
           <c:symbol val="none"/>
@@ -1036,9 +1047,6 @@
           <a:solidFill>
             <a:srgbClr val="FF00FF"/>
           </a:solidFill>
-          <a:ln>
-            <a:prstDash val="solid"/>
-          </a:ln>
         </c:spPr>
         <c:marker>
           <c:symbol val="none"/>
@@ -1057,9 +1065,6 @@
           <a:solidFill>
             <a:schemeClr val="accent4"/>
           </a:solidFill>
-          <a:ln>
-            <a:prstDash val="solid"/>
-          </a:ln>
         </c:spPr>
         <c:marker>
           <c:symbol val="none"/>
@@ -1107,9 +1112,6 @@
               <a:schemeClr val="bg1"/>
             </a:bgClr>
           </a:pattFill>
-          <a:ln>
-            <a:prstDash val="solid"/>
-          </a:ln>
         </c:spPr>
         <c:marker>
           <c:symbol val="none"/>
@@ -2447,9 +2449,6 @@
             <a:solidFill>
               <a:srgbClr val="FF00FF"/>
             </a:solidFill>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -2680,10 +2679,6 @@
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -2914,9 +2909,6 @@
             <a:solidFill>
               <a:schemeClr val="accent4"/>
             </a:solidFill>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -3138,18 +3130,23 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Average of Tinder</c:v>
+                  <c:v>Average of One UI Home</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="99CCFF"/>
-            </a:solidFill>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
+            <a:pattFill prst="ltHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -3263,708 +3260,6 @@
               <c:numCache>
                 <c:formatCode>hh:mm:ss;@</c:formatCode>
                 <c:ptCount val="30"/>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.9756944444444447E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.2916666666666659E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.4490740740740745E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.9166666666666668E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.4351851851851854E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.1666666666666669E-4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.0231481481481481E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.0023148148148148E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.2152777777777778E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.5694444444444445E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.4467592592592594E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.5000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.9675925925925926E-4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7.407407407407407E-4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.175925925925927E-4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.7731481481481483E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.0509259259259258E-4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7.7546296296296304E-4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.9629629629629628E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.4004629629629629E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.3726851851851851E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.4004629629629629E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.8703703703703708E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.9768518518518521E-4</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.3564814814814812E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-565A-4879-9295-46F351598F71}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="13"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Pivot!$M$4:$M$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Average of Bumble</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="65000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Pivot!$A$6:$A$37</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="30"/>
-                <c:lvl>
-                  <c:pt idx="2">
-                    <c:v>01-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>02-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>03-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>04-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>05-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>06-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>07-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>08-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>09-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>10-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>11-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>12-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>13-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>14-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>15-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>16-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>17-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>18-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>19-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>20-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>21-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>22-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>23-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>24-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>25-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>26-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>27-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>28-Aug</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Jun</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Jul</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Aug</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Pivot!$M$6:$M$37</c:f>
-              <c:numCache>
-                <c:formatCode>hh:mm:ss;@</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.9282407407407408E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.4375000000000006E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.9837962962962961E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.4502314814814815E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.6643518518518518E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0277777777777784E-4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.9398148148148148E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.9560185185185185E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.1805555555555556E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.9861111111111113E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.2199074074074066E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.291666666666667E-4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.3564814814814812E-4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.1226851851851851E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.0092592592592595E-4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.2962962962962963E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6.134259259259259E-4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.6782407407407406E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.5462962962962961E-4</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.8171296296296297E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.0879629629629629E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.1874999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.2152777777777778E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5.2083333333333333E-4</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.9351851851851852E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-565A-4879-9295-46F351598F71}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="14"/>
-          <c:order val="12"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Pivot!$N$4:$N$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Average of JSwipe</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:pattFill prst="openDmnd">
-              <a:fgClr>
-                <a:schemeClr val="tx1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Pivot!$A$6:$A$37</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="30"/>
-                <c:lvl>
-                  <c:pt idx="2">
-                    <c:v>01-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>02-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>03-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>04-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>05-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>06-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>07-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>08-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>09-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>10-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>11-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>12-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>13-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>14-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>15-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>16-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>17-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>18-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>19-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>20-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>21-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>22-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>23-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>24-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>25-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>26-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>27-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>28-Aug</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Jun</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Jul</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Aug</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Pivot!$N$6:$N$37</c:f>
-              <c:numCache>
-                <c:formatCode>hh:mm:ss;@</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.034199522102748E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.7453703703703703E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.7546296296296304E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.8287037037037037E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.0277777777777784E-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.5046296296296297E-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1574074074074073E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.0277777777777784E-4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.273148148148148E-4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.3888888888888889E-4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.3564814814814812E-4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.7361111111111112E-4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.9027777777777778E-4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.0833333333333335E-4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.3148148148148146E-4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>9.6064814814814808E-4</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.9675925925925926E-4</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7.175925925925927E-4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.5462962962962961E-4</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.9768518518518521E-4</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.0833333333333335E-4</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-565A-4879-9295-46F351598F71}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="15"/>
-          <c:order val="13"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Pivot!$O$4:$O$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Average of One UI Home</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:pattFill prst="ltHorz">
-              <a:fgClr>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Pivot!$A$6:$A$37</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="30"/>
-                <c:lvl>
-                  <c:pt idx="2">
-                    <c:v>01-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>02-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>03-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>04-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>05-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>06-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>07-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>08-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>09-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>10-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>11-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>12-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>13-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>14-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>15-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>16-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>17-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>18-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>19-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>20-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>21-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>22-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>23-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>24-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>25-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>26-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>27-Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>28-Aug</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Jun</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Jul</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Aug</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Pivot!$O$6:$O$37</c:f>
-              <c:numCache>
-                <c:formatCode>hh:mm:ss;@</c:formatCode>
-                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>8.6168981481481478E-3</c:v>
                 </c:pt>
@@ -4039,16 +3334,16 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-565A-4879-9295-46F351598F71}"/>
+              <c16:uniqueId val="{00000008-565A-4879-9295-46F351598F71}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="16"/>
-          <c:order val="14"/>
+          <c:idx val="13"/>
+          <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>Pivot!$P$4:$P$5</c:f>
+              <c:f>Pivot!$M$4:$M$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4174,7 +3469,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Pivot!$P$6:$P$37</c:f>
+              <c:f>Pivot!$M$6:$M$37</c:f>
               <c:numCache>
                 <c:formatCode>hh:mm:ss;@</c:formatCode>
                 <c:ptCount val="30"/>
@@ -4273,16 +3568,16 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-565A-4879-9295-46F351598F71}"/>
+              <c16:uniqueId val="{00000009-565A-4879-9295-46F351598F71}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="17"/>
-          <c:order val="15"/>
+          <c:idx val="14"/>
+          <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>Pivot!$Q$4:$Q$5</c:f>
+              <c:f>Pivot!$N$4:$N$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4408,7 +3703,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Pivot!$Q$6:$Q$37</c:f>
+              <c:f>Pivot!$N$6:$N$37</c:f>
               <c:numCache>
                 <c:formatCode>hh:mm:ss;@</c:formatCode>
                 <c:ptCount val="30"/>
@@ -4507,7 +3802,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-565A-4879-9295-46F351598F71}"/>
+              <c16:uniqueId val="{0000000A-565A-4879-9295-46F351598F71}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -17702,7 +16997,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="A4:Q37" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <location ref="A4:N37" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="169">
     <pivotField axis="axisPage" showAll="0">
       <items count="2">
@@ -18708,7 +18003,7 @@
     <pivotField numFmtId="21" showAll="0"/>
     <pivotField numFmtId="21" showAll="0"/>
     <pivotField numFmtId="21" showAll="0"/>
-    <pivotField dataField="1" numFmtId="21" showAll="0"/>
+    <pivotField numFmtId="21" showAll="0"/>
     <pivotField numFmtId="21" showAll="0"/>
     <pivotField numFmtId="21" showAll="0"/>
     <pivotField numFmtId="21" showAll="0"/>
@@ -18750,9 +18045,9 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -19682,7 +18977,7 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="16">
+  <colItems count="13">
     <i>
       <x/>
     </i>
@@ -19722,20 +19017,11 @@
     <i i="12">
       <x v="12"/>
     </i>
-    <i i="13">
-      <x v="13"/>
-    </i>
-    <i i="14">
-      <x v="14"/>
-    </i>
-    <i i="15">
-      <x v="15"/>
-    </i>
   </colItems>
   <pageFields count="1">
     <pageField fld="0" hier="-1"/>
   </pageFields>
-  <dataFields count="16">
+  <dataFields count="13">
     <dataField name="Average of Running avg" fld="4" subtotal="average" baseField="2" baseItem="194"/>
     <dataField name="Average of Total" fld="3" subtotal="average" baseField="163" baseItem="2"/>
     <dataField name="Average of Facebook" fld="8" subtotal="average" baseField="123" baseItem="7"/>
@@ -19746,15 +19032,12 @@
     <dataField name="Average of Instagram" fld="10" subtotal="average" baseField="2" baseItem="196"/>
     <dataField name="Average of YouTube" fld="12" subtotal="average" baseField="2" baseItem="196"/>
     <dataField name="Average of Snapchat" fld="28" subtotal="average" baseField="2" baseItem="196"/>
-    <dataField name="Average of Tinder" fld="131" subtotal="average" baseField="2" baseItem="196"/>
-    <dataField name="Average of Bumble" fld="129" subtotal="average" baseField="152" baseItem="6"/>
-    <dataField name="Average of JSwipe" fld="99" subtotal="average" baseField="152" baseItem="6"/>
     <dataField name="Average of One UI Home" fld="5" subtotal="average" baseField="2" baseItem="230"/>
     <dataField name="Average of Maps" fld="40" subtotal="average" baseField="2" baseItem="228"/>
     <dataField name="Average of Zoom" fld="118" subtotal="average" baseField="152" baseItem="7"/>
   </dataFields>
   <formats count="8">
-    <format dxfId="23">
+    <format dxfId="31">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1">
@@ -19766,7 +19049,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="30">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="152" count="1">
@@ -19775,7 +19058,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="29">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1">
@@ -19787,7 +19070,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="28">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="152" count="1">
@@ -19796,7 +19079,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="27">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1">
@@ -19808,10 +19091,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="26">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="25">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="152" count="1">
@@ -19820,11 +19103,11 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="24">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="31">
+  <chartFormats count="27">
     <chartFormat chart="1" format="1" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -19906,15 +19189,6 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="1" format="15" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="10"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
     <chartFormat chart="1" format="16" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -19937,7 +19211,7 @@
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
-            <x v="13"/>
+            <x v="10"/>
           </reference>
         </references>
       </pivotArea>
@@ -19946,7 +19220,7 @@
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
-            <x v="14"/>
+            <x v="11"/>
           </reference>
         </references>
       </pivotArea>
@@ -20041,7 +19315,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="9" format="10" series="1">
+    <chartFormat chart="9" format="11" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -20050,34 +19324,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="9" format="11" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="13"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
     <chartFormat chart="9" format="12" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="14"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="14" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="15"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="15" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -20086,7 +19333,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="9" format="16" series="1">
+    <chartFormat chart="9" format="14" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -44469,10 +43716,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:Q37"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44488,25 +43735,22 @@
     <col min="9" max="9" width="20" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="16.140625" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -44573,19 +43817,13 @@
       <c r="N5" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="O5" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>178</v>
-      </c>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B6" s="8">
         <v>9.5778356481481475E-2</v>
@@ -44617,24 +43855,22 @@
       <c r="K6" s="8">
         <v>8.6805555555555545E-5</v>
       </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
+      <c r="L6" s="8">
+        <v>8.6168981481481478E-3</v>
+      </c>
+      <c r="M6" s="8">
+        <v>3.9930555555555552E-4</v>
+      </c>
       <c r="N6" s="8">
         <v>0</v>
       </c>
-      <c r="O6" s="8">
-        <v>8.6168981481481478E-3</v>
-      </c>
-      <c r="P6" s="8">
-        <v>3.9930555555555552E-4</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>0</v>
-      </c>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B7" s="8">
         <v>0.1374794653524492</v>
@@ -44666,24 +43902,22 @@
       <c r="K7" s="8">
         <v>2.0097819593787336E-3</v>
       </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+      <c r="L7" s="8">
+        <v>8.9867084826762266E-3</v>
+      </c>
+      <c r="M7" s="8">
+        <v>3.1395609318996417E-3</v>
+      </c>
       <c r="N7" s="8">
-        <v>1.034199522102748E-4</v>
-      </c>
-      <c r="O7" s="8">
-        <v>8.9867084826762266E-3</v>
-      </c>
-      <c r="P7" s="8">
-        <v>3.1395609318996417E-3</v>
-      </c>
-      <c r="Q7" s="8">
         <v>2.9597520908004781E-2</v>
       </c>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B8" s="8">
         <v>0.1361119378306879</v>
@@ -44716,27 +43950,21 @@
         <v>1.6162367724867727E-3</v>
       </c>
       <c r="L8" s="8">
-        <v>2.802579365079366E-3</v>
+        <v>8.4755291005290997E-3</v>
       </c>
       <c r="M8" s="8">
-        <v>3.0931712962962957E-3</v>
+        <v>4.2906746031746027E-3</v>
       </c>
       <c r="N8" s="8">
-        <v>5.3943452380952374E-4</v>
-      </c>
-      <c r="O8" s="8">
-        <v>8.4755291005290997E-3</v>
-      </c>
-      <c r="P8" s="8">
-        <v>4.2906746031746027E-3</v>
-      </c>
-      <c r="Q8" s="8">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B9" s="8">
         <v>0.14313657407407407</v>
@@ -44768,26 +43996,20 @@
       <c r="K9" s="8">
         <v>2.3611111111111111E-3</v>
       </c>
-      <c r="L9" s="8">
-        <v>0</v>
-      </c>
+      <c r="L9" s="8"/>
       <c r="M9" s="8">
         <v>0</v>
       </c>
       <c r="N9" s="8">
         <v>0</v>
       </c>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="8">
-        <v>0</v>
-      </c>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B10" s="8">
         <v>0.14381944444444444</v>
@@ -44819,26 +44041,20 @@
       <c r="K10" s="8">
         <v>2.7893518518518519E-3</v>
       </c>
-      <c r="L10" s="8">
-        <v>2.9756944444444447E-2</v>
-      </c>
+      <c r="L10" s="8"/>
       <c r="M10" s="8">
-        <v>1.9282407407407408E-2</v>
+        <v>1.2384259259259258E-3</v>
       </c>
       <c r="N10" s="8">
-        <v>4.7453703703703703E-3</v>
-      </c>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8">
-        <v>1.2384259259259258E-3</v>
-      </c>
-      <c r="Q10" s="8">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B11" s="8">
         <v>0.14289351851851853</v>
@@ -44870,26 +44086,20 @@
       <c r="K11" s="8">
         <v>4.7222222222222223E-3</v>
       </c>
-      <c r="L11" s="8">
-        <v>7.2916666666666659E-3</v>
-      </c>
+      <c r="L11" s="8"/>
       <c r="M11" s="8">
-        <v>8.4375000000000006E-3</v>
+        <v>0</v>
       </c>
       <c r="N11" s="8">
-        <v>7.7546296296296304E-4</v>
-      </c>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="8">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B12" s="8">
         <v>0.14202546296296295</v>
@@ -44921,26 +44131,20 @@
       <c r="K12" s="8">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="L12" s="8">
-        <v>3.4490740740740745E-3</v>
-      </c>
+      <c r="L12" s="8"/>
       <c r="M12" s="8">
-        <v>5.9837962962962961E-3</v>
+        <v>0</v>
       </c>
       <c r="N12" s="8">
-        <v>1.8287037037037037E-3</v>
-      </c>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="8">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B13" s="8">
         <v>0.14162037037037037</v>
@@ -44972,26 +44176,20 @@
       <c r="K13" s="8">
         <v>5.8680555555555543E-3</v>
       </c>
-      <c r="L13" s="8">
-        <v>2.9166666666666668E-3</v>
-      </c>
+      <c r="L13" s="8"/>
       <c r="M13" s="8">
-        <v>1.4502314814814815E-2</v>
+        <v>3.0902777777777782E-3</v>
       </c>
       <c r="N13" s="8">
-        <v>9.0277777777777784E-4</v>
-      </c>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8">
-        <v>3.0902777777777782E-3</v>
-      </c>
-      <c r="Q13" s="8">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B14" s="8">
         <v>0.14061342592592593</v>
@@ -45023,26 +44221,20 @@
       <c r="K14" s="8">
         <v>1.5046296296296294E-3</v>
       </c>
-      <c r="L14" s="8">
-        <v>1.4351851851851854E-3</v>
-      </c>
+      <c r="L14" s="8"/>
       <c r="M14" s="8">
-        <v>4.6643518518518518E-3</v>
+        <v>4.8611111111111104E-4</v>
       </c>
       <c r="N14" s="8">
-        <v>1.5046296296296297E-4</v>
-      </c>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8">
-        <v>4.8611111111111104E-4</v>
-      </c>
-      <c r="Q14" s="8">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B15" s="8">
         <v>0.13927083333333334</v>
@@ -45074,26 +44266,20 @@
       <c r="K15" s="8">
         <v>5.0925925925925921E-4</v>
       </c>
-      <c r="L15" s="8">
-        <v>4.1666666666666669E-4</v>
-      </c>
+      <c r="L15" s="8"/>
       <c r="M15" s="8">
-        <v>9.0277777777777784E-4</v>
+        <v>5.4976851851851853E-3</v>
       </c>
       <c r="N15" s="8">
         <v>0</v>
       </c>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8">
-        <v>5.4976851851851853E-3</v>
-      </c>
-      <c r="Q15" s="8">
-        <v>0</v>
-      </c>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B16" s="8">
         <v>0.138125</v>
@@ -45126,27 +44312,21 @@
         <v>1.1226851851851851E-3</v>
       </c>
       <c r="L16" s="8">
-        <v>5.0231481481481481E-3</v>
+        <v>2.2569444444444447E-3</v>
       </c>
       <c r="M16" s="8">
-        <v>2.9398148148148148E-3</v>
+        <v>0</v>
       </c>
       <c r="N16" s="8">
-        <v>1.1574074074074073E-3</v>
-      </c>
-      <c r="O16" s="8">
-        <v>2.2569444444444447E-3</v>
-      </c>
-      <c r="P16" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="8">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B17" s="8">
         <v>0.13875000000000001</v>
@@ -45179,27 +44359,21 @@
         <v>5.8101851851851856E-3</v>
       </c>
       <c r="L17" s="8">
-        <v>2.0023148148148148E-3</v>
+        <v>9.3749999999999997E-3</v>
       </c>
       <c r="M17" s="8">
-        <v>6.9560185185185185E-3</v>
+        <v>1.5555555555555553E-2</v>
       </c>
       <c r="N17" s="8">
-        <v>9.0277777777777784E-4</v>
-      </c>
-      <c r="O17" s="8">
-        <v>9.3749999999999997E-3</v>
-      </c>
-      <c r="P17" s="8">
-        <v>1.5555555555555553E-2</v>
-      </c>
-      <c r="Q17" s="8">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B18" s="8">
         <v>0.1378125</v>
@@ -45232,27 +44406,21 @@
         <v>0</v>
       </c>
       <c r="L18" s="8">
-        <v>1.2152777777777778E-3</v>
+        <v>8.5995370370370357E-3</v>
       </c>
       <c r="M18" s="8">
-        <v>1.1805555555555556E-3</v>
+        <v>0</v>
       </c>
       <c r="N18" s="8">
-        <v>1.273148148148148E-4</v>
-      </c>
-      <c r="O18" s="8">
-        <v>8.5995370370370357E-3</v>
-      </c>
-      <c r="P18" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="8">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B19" s="8">
         <v>0.13694444444444445</v>
@@ -45285,27 +44453,21 @@
         <v>3.0092592592592595E-4</v>
       </c>
       <c r="L19" s="8">
-        <v>2.5694444444444445E-3</v>
+        <v>8.4953703703703701E-3</v>
       </c>
       <c r="M19" s="8">
-        <v>2.9861111111111113E-3</v>
+        <v>0</v>
       </c>
       <c r="N19" s="8">
-        <v>1.3888888888888889E-4</v>
-      </c>
-      <c r="O19" s="8">
-        <v>8.4953703703703701E-3</v>
-      </c>
-      <c r="P19" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="8">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B20" s="8">
         <v>0.13667824074074073</v>
@@ -45338,27 +44500,21 @@
         <v>1.1574074074074073E-4</v>
       </c>
       <c r="L20" s="8">
-        <v>1.4467592592592594E-3</v>
+        <v>8.1249999999999985E-3</v>
       </c>
       <c r="M20" s="8">
-        <v>5.2199074074074066E-3</v>
+        <v>0</v>
       </c>
       <c r="N20" s="8">
-        <v>3.3564814814814812E-4</v>
-      </c>
-      <c r="O20" s="8">
-        <v>8.1249999999999985E-3</v>
-      </c>
-      <c r="P20" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="8">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B21" s="8">
         <v>0.13621527777777778</v>
@@ -45391,27 +44547,21 @@
         <v>0</v>
       </c>
       <c r="L21" s="8">
-        <v>2.5000000000000001E-3</v>
+        <v>1.292824074074074E-2</v>
       </c>
       <c r="M21" s="8">
-        <v>7.291666666666667E-4</v>
+        <v>1.1111111111111111E-3</v>
       </c>
       <c r="N21" s="8">
-        <v>1.7361111111111112E-4</v>
-      </c>
-      <c r="O21" s="8">
-        <v>1.292824074074074E-2</v>
-      </c>
-      <c r="P21" s="8">
-        <v>1.1111111111111111E-3</v>
-      </c>
-      <c r="Q21" s="8">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B22" s="8">
         <v>0.13487268518518519</v>
@@ -45444,27 +44594,21 @@
         <v>3.1250000000000001E-4</v>
       </c>
       <c r="L22" s="8">
-        <v>1.9675925925925926E-4</v>
+        <v>3.1249999999999997E-3</v>
       </c>
       <c r="M22" s="8">
-        <v>3.3564814814814812E-4</v>
+        <v>0</v>
       </c>
       <c r="N22" s="8">
         <v>0</v>
       </c>
-      <c r="O22" s="8">
-        <v>3.1249999999999997E-3</v>
-      </c>
-      <c r="P22" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="8">
-        <v>0</v>
-      </c>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B23" s="8">
         <v>0.13344907407407408</v>
@@ -45497,27 +44641,21 @@
         <v>2.0833333333333335E-4</v>
       </c>
       <c r="L23" s="8">
-        <v>7.407407407407407E-4</v>
+        <v>3.6689814814814814E-3</v>
       </c>
       <c r="M23" s="8">
-        <v>1.1226851851851851E-3</v>
+        <v>0</v>
       </c>
       <c r="N23" s="8">
-        <v>5.9027777777777778E-4</v>
-      </c>
-      <c r="O23" s="8">
-        <v>3.6689814814814814E-3</v>
-      </c>
-      <c r="P23" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="8">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B24" s="8">
         <v>0.13400462962962964</v>
@@ -45550,27 +44688,21 @@
         <v>9.1435185185185185E-4</v>
       </c>
       <c r="L24" s="8">
-        <v>7.175925925925927E-4</v>
+        <v>7.1874999999999994E-3</v>
       </c>
       <c r="M24" s="8">
-        <v>3.0092592592592595E-4</v>
+        <v>9.1435185185185185E-4</v>
       </c>
       <c r="N24" s="8">
-        <v>2.0833333333333335E-4</v>
-      </c>
-      <c r="O24" s="8">
-        <v>7.1874999999999994E-3</v>
-      </c>
-      <c r="P24" s="8">
-        <v>9.1435185185185185E-4</v>
-      </c>
-      <c r="Q24" s="8">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B25" s="8">
         <v>0.13415509259259259</v>
@@ -45603,27 +44735,21 @@
         <v>6.134259259259259E-4</v>
       </c>
       <c r="L25" s="8">
-        <v>3.7731481481481483E-3</v>
+        <v>1.5902777777777776E-2</v>
       </c>
       <c r="M25" s="8">
-        <v>1.2962962962962963E-3</v>
+        <v>0</v>
       </c>
       <c r="N25" s="8">
-        <v>2.3148148148148146E-4</v>
-      </c>
-      <c r="O25" s="8">
-        <v>1.5902777777777776E-2</v>
-      </c>
-      <c r="P25" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="8">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B26" s="8">
         <v>0.13385416666666666</v>
@@ -45656,27 +44782,21 @@
         <v>2.685185185185185E-3</v>
       </c>
       <c r="L26" s="8">
-        <v>4.0509259259259258E-4</v>
+        <v>6.7361111111111103E-3</v>
       </c>
       <c r="M26" s="8">
-        <v>6.134259259259259E-4</v>
+        <v>5.4398148148148144E-4</v>
       </c>
       <c r="N26" s="8">
         <v>0</v>
       </c>
-      <c r="O26" s="8">
-        <v>6.7361111111111103E-3</v>
-      </c>
-      <c r="P26" s="8">
-        <v>5.4398148148148144E-4</v>
-      </c>
-      <c r="Q26" s="8">
-        <v>0</v>
-      </c>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B27" s="8">
         <v>0.13370370370370369</v>
@@ -45709,27 +44829,21 @@
         <v>1.0416666666666667E-4</v>
       </c>
       <c r="L27" s="8">
-        <v>0</v>
+        <v>9.1319444444444443E-3</v>
       </c>
       <c r="M27" s="8">
-        <v>1.6782407407407406E-3</v>
+        <v>1.6203703703703703E-4</v>
       </c>
       <c r="N27" s="8">
-        <v>9.6064814814814808E-4</v>
-      </c>
-      <c r="O27" s="8">
-        <v>9.1319444444444443E-3</v>
-      </c>
-      <c r="P27" s="8">
-        <v>1.6203703703703703E-4</v>
-      </c>
-      <c r="Q27" s="8">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B28" s="8">
         <v>0.13251157407407407</v>
@@ -45762,7 +44876,7 @@
         <v>4.1666666666666669E-4</v>
       </c>
       <c r="L28" s="8">
-        <v>7.7546296296296304E-4</v>
+        <v>9.7337962962962977E-3</v>
       </c>
       <c r="M28" s="8">
         <v>0</v>
@@ -45770,19 +44884,13 @@
       <c r="N28" s="8">
         <v>0</v>
       </c>
-      <c r="O28" s="8">
-        <v>9.7337962962962977E-3</v>
-      </c>
-      <c r="P28" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="8">
-        <v>0</v>
-      </c>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B29" s="8">
         <v>0.13229166666666667</v>
@@ -45815,27 +44923,21 @@
         <v>8.7962962962962962E-4</v>
       </c>
       <c r="L29" s="8">
-        <v>2.9629629629629628E-3</v>
+        <v>6.0416666666666665E-3</v>
       </c>
       <c r="M29" s="8">
-        <v>2.5462962962962961E-4</v>
+        <v>0</v>
       </c>
       <c r="N29" s="8">
-        <v>1.9675925925925926E-4</v>
-      </c>
-      <c r="O29" s="8">
-        <v>6.0416666666666665E-3</v>
-      </c>
-      <c r="P29" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="8">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B30" s="8">
         <v>0.13069444444444445</v>
@@ -45868,7 +44970,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="8">
-        <v>0</v>
+        <v>2.0949074074074073E-3</v>
       </c>
       <c r="M30" s="8">
         <v>0</v>
@@ -45876,19 +44978,13 @@
       <c r="N30" s="8">
         <v>0</v>
       </c>
-      <c r="O30" s="8">
-        <v>2.0949074074074073E-3</v>
-      </c>
-      <c r="P30" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="8">
-        <v>0</v>
-      </c>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B31" s="8">
         <v>0.13100694444444444</v>
@@ -45921,27 +45017,21 @@
         <v>3.2060185185185191E-3</v>
       </c>
       <c r="L31" s="8">
-        <v>1.4004629629629629E-3</v>
+        <v>8.5069444444444437E-3</v>
       </c>
       <c r="M31" s="8">
-        <v>1.8171296296296297E-3</v>
+        <v>9.9305555555555553E-3</v>
       </c>
       <c r="N31" s="8">
-        <v>7.175925925925927E-4</v>
-      </c>
-      <c r="O31" s="8">
-        <v>8.5069444444444437E-3</v>
-      </c>
-      <c r="P31" s="8">
-        <v>9.9305555555555553E-3</v>
-      </c>
-      <c r="Q31" s="8">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B32" s="8">
         <v>0.13172453703703704</v>
@@ -45974,27 +45064,21 @@
         <v>2.7662037037037034E-3</v>
       </c>
       <c r="L32" s="8">
-        <v>2.3726851851851851E-3</v>
+        <v>1.3206018518518518E-2</v>
       </c>
       <c r="M32" s="8">
-        <v>1.0879629629629629E-3</v>
+        <v>6.030092592592593E-3</v>
       </c>
       <c r="N32" s="8">
         <v>0</v>
       </c>
-      <c r="O32" s="8">
-        <v>1.3206018518518518E-2</v>
-      </c>
-      <c r="P32" s="8">
-        <v>6.030092592592593E-3</v>
-      </c>
-      <c r="Q32" s="8">
-        <v>0</v>
-      </c>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B33" s="8">
         <v>0.13306712962962963</v>
@@ -46027,27 +45111,21 @@
         <v>1.8171296296296297E-3</v>
       </c>
       <c r="L33" s="8">
-        <v>1.4004629629629629E-3</v>
+        <v>2.1064814814814814E-2</v>
       </c>
       <c r="M33" s="8">
-        <v>2.1874999999999998E-3</v>
+        <v>7.5578703703703703E-2</v>
       </c>
       <c r="N33" s="8">
-        <v>2.5462962962962961E-4</v>
-      </c>
-      <c r="O33" s="8">
-        <v>2.1064814814814814E-2</v>
-      </c>
-      <c r="P33" s="8">
-        <v>7.5578703703703703E-2</v>
-      </c>
-      <c r="Q33" s="8">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B34" s="8">
         <v>0.13274305555555557</v>
@@ -46080,27 +45158,21 @@
         <v>1.689814814814815E-3</v>
       </c>
       <c r="L34" s="8">
-        <v>2.8703703703703708E-3</v>
+        <v>6.5046296296296302E-3</v>
       </c>
       <c r="M34" s="8">
-        <v>1.2152777777777778E-3</v>
+        <v>0</v>
       </c>
       <c r="N34" s="8">
-        <v>4.9768518518518521E-4</v>
-      </c>
-      <c r="O34" s="8">
-        <v>6.5046296296296302E-3</v>
-      </c>
-      <c r="P34" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="8">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B35" s="8">
         <v>0.13304398148148147</v>
@@ -46133,27 +45205,21 @@
         <v>1.4351851851851854E-3</v>
       </c>
       <c r="L35" s="8">
-        <v>4.9768518518518521E-4</v>
+        <v>1.0277777777777778E-2</v>
       </c>
       <c r="M35" s="8">
-        <v>5.2083333333333333E-4</v>
+        <v>0</v>
       </c>
       <c r="N35" s="8">
-        <v>2.0833333333333335E-4</v>
-      </c>
-      <c r="O35" s="8">
-        <v>1.0277777777777778E-2</v>
-      </c>
-      <c r="P35" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="8">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B36" s="8">
         <v>0.13210648148148149</v>
@@ -46186,27 +45252,21 @@
         <v>6.018518518518519E-4</v>
       </c>
       <c r="L36" s="8">
-        <v>3.3564814814814812E-4</v>
+        <v>5.0231481481481481E-3</v>
       </c>
       <c r="M36" s="8">
-        <v>3.9351851851851852E-4</v>
+        <v>0</v>
       </c>
       <c r="N36" s="8">
         <v>0</v>
       </c>
-      <c r="O36" s="8">
-        <v>5.0231481481481481E-3</v>
-      </c>
-      <c r="P36" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="8">
-        <v>0</v>
-      </c>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B37" s="8">
         <v>0.13422398589065257</v>
@@ -46239,23 +45299,17 @@
         <v>1.7127792475014696E-3</v>
       </c>
       <c r="L37" s="8">
-        <v>2.802579365079366E-3</v>
+        <v>8.7686011904761895E-3</v>
       </c>
       <c r="M37" s="8">
-        <v>3.0931712962962957E-3</v>
+        <v>3.4771825396825401E-3</v>
       </c>
       <c r="N37" s="8">
-        <v>2.9063786008230453E-4</v>
-      </c>
-      <c r="O37" s="8">
-        <v>8.7686011904761895E-3</v>
-      </c>
-      <c r="P37" s="8">
-        <v>3.4771825396825401E-3</v>
-      </c>
-      <c r="Q37" s="8">
         <v>1.4563859494415051E-2</v>
       </c>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
